--- a/c++/函数/函数栈分析/函数栈分析/函数栈分析.xlsx
+++ b/c++/函数/函数栈分析/函数栈分析/函数栈分析.xlsx
@@ -8,16 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\c_study_code\c++\函数\函数栈分析\函数栈分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51BC4DA-9521-4236-BC9B-6B2ED5C0D43C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C102109F-46D8-49EF-905B-39BB3751E0A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="28785" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38490" windowHeight="18750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -255,12 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +282,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1969,19 +1979,19 @@
   <dimension ref="B3:BA33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AT23" sqref="AT23"/>
+      <selection activeCell="AM35" sqref="AM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B5" s="5"/>
+      <c r="B5" s="3"/>
       <c r="J5" s="1"/>
       <c r="R5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1990,7 +2000,7 @@
       <c r="AY5" s="1"/>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B6" s="5"/>
+      <c r="B6" s="3"/>
       <c r="J6" s="1"/>
       <c r="R6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1999,7 +2009,7 @@
       <c r="AY6" s="1"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
       <c r="J7" s="1"/>
       <c r="R7" s="1"/>
       <c r="Z7" s="1"/>
@@ -2008,7 +2018,7 @@
       <c r="AY7" s="1"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="J8" s="1"/>
       <c r="R8" s="1"/>
       <c r="Z8" s="1"/>
@@ -2017,7 +2027,7 @@
       <c r="AY8" s="1"/>
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B9" s="5"/>
+      <c r="B9" s="3"/>
       <c r="J9" s="1"/>
       <c r="R9" s="1"/>
       <c r="Z9" s="1"/>
@@ -2026,7 +2036,7 @@
       <c r="AY9" s="1"/>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
+      <c r="B10" s="3"/>
       <c r="J10" s="1"/>
       <c r="R10" s="1"/>
       <c r="Z10" s="1"/>
@@ -2035,7 +2045,7 @@
       <c r="AY10" s="1"/>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
       <c r="J11" s="1"/>
       <c r="R11" s="1"/>
       <c r="Z11" s="1"/>
@@ -2044,7 +2054,7 @@
       <c r="AY11" s="1"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="J12" s="1"/>
       <c r="R12" s="1"/>
       <c r="Z12" s="1"/>
@@ -2053,7 +2063,7 @@
       <c r="AY12" s="1"/>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B13" s="5"/>
+      <c r="B13" s="3"/>
       <c r="J13" s="1"/>
       <c r="R13" s="1"/>
       <c r="Z13" s="1"/>
@@ -2062,382 +2072,382 @@
       <c r="AY13" s="1"/>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B14" s="5"/>
+      <c r="B14" s="3"/>
       <c r="J14" s="1"/>
       <c r="R14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AP14" s="1"/>
-      <c r="AR14" s="3" t="s">
+      <c r="AR14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
       <c r="AY14" s="1"/>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
+      <c r="B15" s="3"/>
       <c r="J15" s="1"/>
       <c r="R15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="3" t="s">
+      <c r="AA15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
       <c r="AH15" s="1"/>
-      <c r="AI15" s="3" t="s">
+      <c r="AI15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
       <c r="AP15" s="1"/>
-      <c r="AQ15" s="3" t="s">
+      <c r="AQ15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
       <c r="AY15" s="1"/>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
+      <c r="B16" s="3"/>
       <c r="J16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="3" t="s">
+      <c r="AI16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
       <c r="AP16" s="1"/>
       <c r="AY16" s="1"/>
     </row>
     <row r="17" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
+      <c r="B17" s="3"/>
       <c r="J17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
       <c r="AH17" s="1"/>
-      <c r="AI17" s="3" t="s">
+      <c r="AI17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
       <c r="AP17" s="1"/>
       <c r="AY17" s="1"/>
     </row>
     <row r="18" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B18" s="5"/>
+      <c r="B18" s="3"/>
       <c r="J18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="3" t="s">
+      <c r="AA18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
       <c r="AH18" s="1"/>
-      <c r="AI18" s="3" t="s">
+      <c r="AI18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
       <c r="AP18" s="1"/>
       <c r="AY18" s="1"/>
     </row>
     <row r="19" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B19" s="5"/>
+      <c r="B19" s="3"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="3" t="s">
+      <c r="S19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="3" t="s">
+      <c r="AI19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
       <c r="AP19" s="1"/>
       <c r="AY19" s="1"/>
     </row>
     <row r="20" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
+      <c r="B20" s="3"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="3" t="s">
+      <c r="AA20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="3" t="s">
+      <c r="AI20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
       <c r="AP20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
     <row r="21" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
+      <c r="B21" s="3"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="3" t="s">
+      <c r="AA21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="3" t="s">
+      <c r="AI21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
       <c r="AP21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
     <row r="22" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
+      <c r="B22" s="3"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
       <c r="AH22" s="1"/>
-      <c r="AI22" s="3" t="s">
+      <c r="AI22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
       <c r="AP22" s="1"/>
       <c r="AY22" s="1"/>
     </row>
     <row r="23" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
+      <c r="B23" s="3"/>
       <c r="J23" s="1"/>
       <c r="R23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="3" t="s">
+      <c r="AA23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="8" t="s">
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AJ23" s="4" t="s">
+      <c r="AJ23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AK23" t="s">
         <v>0</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AL23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="9"/>
-      <c r="AR23" s="4"/>
-      <c r="AY23" s="9"/>
-      <c r="BA23" s="4"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="7"/>
+      <c r="AR23" s="2"/>
+      <c r="AY23" s="7"/>
+      <c r="BA23" s="2"/>
     </row>
     <row r="24" spans="2:53" ht="15" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
+      <c r="B24" s="3"/>
       <c r="J24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="Z24" s="6">
+      <c r="Z24" s="4">
         <v>1141000</v>
       </c>
       <c r="AB24" t="s">
         <v>0</v>
       </c>
-      <c r="AH24" s="6">
+      <c r="AH24" s="4">
         <v>1141000</v>
       </c>
-      <c r="AP24" s="6"/>
-      <c r="AY24" s="6"/>
+      <c r="AP24" s="4"/>
+      <c r="AY24" s="4"/>
     </row>
     <row r="25" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B25" s="5"/>
+      <c r="B25" s="3"/>
       <c r="J25" s="1"/>
       <c r="R25" s="1"/>
       <c r="Z25" s="1">
@@ -2453,14 +2463,14 @@
       <c r="AY25" s="1"/>
     </row>
     <row r="26" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
-      <c r="E26" s="3" t="s">
+      <c r="B26" s="3"/>
+      <c r="E26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="1"/>
       <c r="R26" s="1"/>
       <c r="Z26" s="1">
@@ -2473,14 +2483,14 @@
       <c r="AY26" s="1"/>
     </row>
     <row r="27" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
-      <c r="E27" s="3" t="s">
+      <c r="B27" s="3"/>
+      <c r="E27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="1"/>
       <c r="R27" s="1"/>
       <c r="T27" t="s">
@@ -2492,14 +2502,14 @@
       <c r="AY27" s="1"/>
     </row>
     <row r="28" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B28" s="5"/>
-      <c r="E28" s="3" t="s">
+      <c r="B28" s="3"/>
+      <c r="E28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="1"/>
       <c r="R28" s="1">
         <v>250</v>
@@ -2514,12 +2524,12 @@
       <c r="AY28" s="1"/>
     </row>
     <row r="29" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="1"/>
       <c r="R29" s="1" t="s">
         <v>2</v>
@@ -2536,14 +2546,14 @@
       <c r="AH29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AJ29" s="7" t="s">
+      <c r="AJ29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AP29" s="1"/>
       <c r="AY29" s="1"/>
     </row>
     <row r="30" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
+      <c r="B30" s="3"/>
       <c r="J30" s="1">
         <v>1141020</v>
       </c>
@@ -2563,7 +2573,7 @@
       <c r="AY30" s="1"/>
     </row>
     <row r="31" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B31" s="5"/>
+      <c r="B31" s="3"/>
       <c r="J31" s="1">
         <v>250</v>
       </c>
@@ -2594,16 +2604,16 @@
       <c r="AQ31" t="s">
         <v>4</v>
       </c>
-      <c r="AR31" s="4" t="s">
+      <c r="AR31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AY31" s="1"/>
-      <c r="BA31" s="4" t="s">
+      <c r="BA31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B32" s="5"/>
+      <c r="B32" s="3"/>
       <c r="J32" s="1">
         <v>50</v>
       </c>
@@ -2625,61 +2635,47 @@
     </row>
     <row r="33" spans="10:53" x14ac:dyDescent="0.15">
       <c r="J33" s="1"/>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L33" t="s">
         <v>1</v>
       </c>
       <c r="R33" s="1"/>
-      <c r="S33" s="4" t="s">
+      <c r="S33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="4" t="s">
+      <c r="AA33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AH33" s="1"/>
-      <c r="AI33" s="4" t="s">
+      <c r="AI33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AP33" s="1"/>
-      <c r="AQ33" s="4" t="s">
+      <c r="AQ33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AR33" s="5" t="s">
+      <c r="AR33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AY33" s="1"/>
-      <c r="AZ33" s="4" t="s">
+      <c r="AZ33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BA33" s="5" t="s">
+      <c r="BA33" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AR14:AX14"/>
-    <mergeCell ref="AQ15:AX15"/>
-    <mergeCell ref="AI15:AO15"/>
-    <mergeCell ref="AI16:AO16"/>
-    <mergeCell ref="AI18:AO18"/>
-    <mergeCell ref="AI19:AO19"/>
-    <mergeCell ref="AI20:AO20"/>
-    <mergeCell ref="AA20:AG20"/>
-    <mergeCell ref="AA21:AG21"/>
-    <mergeCell ref="AA22:AG22"/>
-    <mergeCell ref="AA23:AG23"/>
-    <mergeCell ref="AI17:AO17"/>
-    <mergeCell ref="AI21:AO21"/>
-    <mergeCell ref="AI22:AO22"/>
-    <mergeCell ref="AL23:AO23"/>
-    <mergeCell ref="AA15:AG15"/>
-    <mergeCell ref="AA16:AG16"/>
-    <mergeCell ref="AA17:AG17"/>
-    <mergeCell ref="AA18:AG18"/>
-    <mergeCell ref="AA19:AG19"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="S18:Y18"/>
+    <mergeCell ref="S19:Y19"/>
+    <mergeCell ref="S20:Y20"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
@@ -2687,12 +2683,26 @@
     <mergeCell ref="K19:Q19"/>
     <mergeCell ref="K20:Q20"/>
     <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="S18:Y18"/>
-    <mergeCell ref="S19:Y19"/>
-    <mergeCell ref="S20:Y20"/>
+    <mergeCell ref="AA15:AG15"/>
+    <mergeCell ref="AA16:AG16"/>
+    <mergeCell ref="AA17:AG17"/>
+    <mergeCell ref="AA18:AG18"/>
+    <mergeCell ref="AA19:AG19"/>
+    <mergeCell ref="AA23:AG23"/>
+    <mergeCell ref="AI17:AO17"/>
+    <mergeCell ref="AI21:AO21"/>
+    <mergeCell ref="AI22:AO22"/>
+    <mergeCell ref="AL23:AO23"/>
+    <mergeCell ref="AI19:AO19"/>
+    <mergeCell ref="AI20:AO20"/>
+    <mergeCell ref="AA20:AG20"/>
+    <mergeCell ref="AA21:AG21"/>
+    <mergeCell ref="AA22:AG22"/>
+    <mergeCell ref="AR14:AX14"/>
+    <mergeCell ref="AQ15:AX15"/>
+    <mergeCell ref="AI15:AO15"/>
+    <mergeCell ref="AI16:AO16"/>
+    <mergeCell ref="AI18:AO18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
